--- a/biology/Zoologie/Achlyodes_mithridates/Achlyodes_mithridates.xlsx
+++ b/biology/Zoologie/Achlyodes_mithridates/Achlyodes_mithridates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achlyodes mithridates est un lépidoptère (papillon) de la famille des Hesperiidae. On le trouve depuis l'Argentine au sud, l'Amérique tropicale, aux Antilles et dans le sud du Texas. Il peut se perdre dans le centre et le nord du Texas, rarement dans l'Arkansas et le Kansas. 
 Il a une envergure de 35 à 45 mm. Les adultes volent toute l'année dans la plupart de son territoire. 
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hesperia mithridates Fabricius, 1793
 Eantis mithridates
@@ -522,10 +536,10 @@
 Achlyodes papinianus
 Achlyodes tamenund
 Eantis tamenund
-Urbanus vetus thraso Hübner, [1807]
+Urbanus vetus thraso Hübner, 
 Eantis peruvianus Mabille &amp; Boullet, 1917
 Achlyodes thraso
-Eantis thraso Godman &amp; Salvin, [1895]
+Eantis thraso Godman &amp; Salvin, 
 Achlyodes minor Comstock, 1944</t>
         </is>
       </c>
@@ -554,7 +568,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Achlyodes mithridates mithridates (Jamaïque)
 Achlyodes mithridates papinianus (Trinidad, Cuba)
